--- a/document/データベース定義書-ちーむあるぺん.xlsx
+++ b/document/データベース定義書-ちーむあるぺん.xlsx
@@ -17,17 +17,17 @@
     <sheet state="visible" name="points" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_1B01D015_B903_4752_ADAB_528E22CCB76B_.wvu.FilterData">'改訂履歴'!$A$2:$D$54</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CF00FAE1_E077_47FA_AB4B_977630CEDF79_.wvu.FilterData">'改訂履歴'!$A$2:$D$54</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{1B01D015-B903-4752-ADAB-528E22CCB76B}" name="フィルタ 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{CF00FAE1-E077-47FA-AB4B-977630CEDF79}" name="フィルタ 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="198">
   <si>
     <t>改定履歴</t>
   </si>
@@ -587,6 +587,9 @@
     <t>row</t>
   </si>
   <si>
+    <t>cakePHPの仕様上TINYINTは真偽値として認識する可能性があるためINTを使う</t>
+  </si>
+  <si>
     <t>チケット情報を保持するテーブル</t>
   </si>
   <si>
@@ -627,7 +630,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -653,7 +656,6 @@
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -663,9 +665,7 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10.0"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -734,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -772,14 +772,17 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -797,12 +800,6 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -812,44 +809,41 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -864,15 +858,14 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2440,7 +2433,7 @@
       <c r="C37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="3"/>
@@ -2467,16 +2460,16 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="3"/>
@@ -2503,16 +2496,16 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="3"/>
@@ -2539,16 +2532,16 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="3"/>
@@ -2575,16 +2568,16 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="3"/>
@@ -2611,16 +2604,16 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="3"/>
@@ -2647,16 +2640,16 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="3"/>
@@ -2683,16 +2676,16 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="3"/>
@@ -2719,16 +2712,16 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="3"/>
@@ -2755,16 +2748,16 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="3"/>
@@ -2791,16 +2784,16 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="14">
+      <c r="A47" s="16">
         <v>44239.0</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="3"/>
@@ -2827,16 +2820,16 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="14">
+      <c r="A48" s="16">
         <v>44239.0</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="3"/>
@@ -2863,16 +2856,16 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="3"/>
@@ -2899,16 +2892,16 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="14">
+      <c r="A50" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="3"/>
@@ -2935,16 +2928,16 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="14">
+      <c r="A51" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="3"/>
@@ -2971,16 +2964,16 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="3"/>
@@ -3007,16 +3000,16 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="14">
+      <c r="A53" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="3"/>
@@ -3043,10 +3036,10 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="14"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="13"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3071,10 +3064,10 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -3099,10 +3092,10 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3127,10 +3120,10 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3155,10 +3148,10 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3183,10 +3176,10 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3211,10 +3204,10 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3239,10 +3232,10 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3267,10 +3260,10 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3295,10 +3288,10 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3323,10 +3316,10 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3351,10 +3344,10 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3379,10 +3372,10 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3407,10 +3400,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3435,10 +3428,10 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3463,10 +3456,10 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -30596,7 +30589,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1B01D015-B903-4752-ADAB-528E22CCB76B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CF00FAE1-E077-47FA-AB4B-977630CEDF79}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$D$54"/>
     </customSheetView>
   </customSheetViews>
@@ -30624,346 +30617,348 @@
     <col customWidth="1" min="6" max="6" width="5.29"/>
     <col customWidth="1" min="7" max="7" width="16.86"/>
     <col customWidth="1" min="8" max="8" width="10.57"/>
-    <col customWidth="1" min="11" max="11" width="19.57"/>
+    <col customWidth="1" min="11" max="11" width="69.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B8" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>100.0</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>7.0</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <v>255.0</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <v>5.0</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="22">
+      <c r="E9" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="45" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" ref="B10:B17" si="2">row()-4</f>
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="21">
         <v>1.0</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="21">
         <v>0.0</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="41" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
-      <c r="B17" s="19">
+      <c r="B17" s="20">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30995,317 +30990,319 @@
     <col customWidth="1" min="6" max="6" width="5.29"/>
     <col customWidth="1" min="7" max="7" width="16.86"/>
     <col customWidth="1" min="8" max="8" width="10.57"/>
-    <col customWidth="1" min="11" max="11" width="19.57"/>
+    <col customWidth="1" min="11" max="11" width="69.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>186</v>
+      <c r="C2" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>100.0</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>7.0</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="24" t="s">
+      <c r="E8" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="45" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>1.0</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="41" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31340,308 +31337,308 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>191</v>
+      <c r="C2" s="18" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>192</v>
+      <c r="C3" s="46" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>11.0</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20" t="s">
-        <v>194</v>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>11.0</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <v>1.0</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="21">
         <v>0.0</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="41" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31676,315 +31673,315 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>255.0</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>255.0</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <v>1.0</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>0.0</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="22" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="21">
         <v>1.0</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32019,295 +32016,295 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>11.0</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="26" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>1.0</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="21">
         <v>0.0</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32342,328 +32339,328 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>11.0</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="26" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>255.0</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="28" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="21">
         <v>100.0</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="21">
         <v>1.0</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>0.0</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="26" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="21" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="21">
-      <c r="K21" s="29"/>
+      <c r="K21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32699,372 +32696,372 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>11.0</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>11.0</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="31" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>11.0</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="31" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="30" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>11.0</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>11.0</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="31" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>7.0</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>1.0</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>0.0</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="31" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>1.0</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>0.0</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="31" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="21" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="31"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="24" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
-      <c r="H17" s="39"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18">
-      <c r="H18" s="39"/>
+      <c r="H18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33099,331 +33096,331 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B9" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>11.0</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>11.0</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="24" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10">
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>6.0</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="30">
         <v>1.0</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="40" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="41" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" ref="B11:B17" si="2">row()-4</f>
         <v>7</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="31"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="24" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="31"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
-      <c r="B17" s="19">
+      <c r="B17" s="20">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33458,317 +33455,317 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>11.0</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>11.0</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="26" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>11.0</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="27" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>4.0</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>1.0</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="31" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="31"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="31"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="31"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33803,322 +33800,322 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B15" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>32.0</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>11.0</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="21">
         <v>255.0</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="46"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="21">
         <v>255.0</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="47"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="21">
         <v>1.0</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="21">
         <v>0.0</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="41" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34153,311 +34150,311 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="48"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>2.0</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="24" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="21">
         <v>1.0</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/document/データベース定義書-ちーむあるぺん.xlsx
+++ b/document/データベース定義書-ちーむあるぺん.xlsx
@@ -17,17 +17,17 @@
     <sheet state="visible" name="points" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_CF00FAE1_E077_47FA_AB4B_977630CEDF79_.wvu.FilterData">'改訂履歴'!$A$2:$D$54</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4FA29F87_B96B_4045_B36B_282700644EB5_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{CF00FAE1-E077-47FA-AB4B-977630CEDF79}" name="フィルタ 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{4FA29F87-B96B-4045-B36B-282700644EB5}" name="フィルタ 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="200">
   <si>
     <t>改定履歴</t>
   </si>
@@ -206,6 +206,12 @@
     <t>表示する割引の数を10までとする旨を備考に記述追加</t>
   </si>
   <si>
+    <t xml:space="preserve">論理名'仮登録'を'本登録'に変更 </t>
+  </si>
+  <si>
+    <t>物理名'is_tmp_reserved'を'is_registered'に変更</t>
+  </si>
+  <si>
     <t>役割</t>
   </si>
   <si>
@@ -275,10 +281,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>仮登録フラグ</t>
+    <t>本登録フラグ</t>
   </si>
   <si>
-    <t>is_tmp_reserved</t>
+    <t>is_registered</t>
   </si>
   <si>
     <t>TINYINT</t>
@@ -630,7 +636,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -656,6 +662,7 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -665,7 +672,9 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10.0"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -734,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -800,6 +809,9 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -809,7 +821,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -818,26 +830,26 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -848,6 +860,9 @@
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -862,10 +877,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3036,10 +3048,18 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="15"/>
+      <c r="A54" s="16">
+        <v>44243.0</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3064,10 +3084,18 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="A55" s="16">
+        <v>44243.0</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -30589,8 +30617,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CF00FAE1-E077-47FA-AB4B-977630CEDF79}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$2:$D$54"/>
+    <customSheetView guid="{4FA29F87-B96B-4045-B36B-282700644EB5}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$2:$D$55"/>
     </customSheetView>
   </customSheetViews>
   <drawing r:id="rId1"/>
@@ -30630,50 +30658,50 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>178</v>
+        <v>63</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -30682,26 +30710,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="21">
         <v>11.0</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
-        <v>74</v>
+      <c r="H5" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -30711,20 +30739,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="21">
         <v>100.0</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30736,24 +30764,24 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F7" s="21">
         <v>7.0</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K7" s="20"/>
     </row>
@@ -30763,20 +30791,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F8" s="21">
         <v>255.0</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -30787,27 +30815,27 @@
         <v>5.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="45">
+        <v>187</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="23">
         <v>1.0</v>
       </c>
       <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>74</v>
+      <c r="H9" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="45" t="s">
-        <v>186</v>
+      <c r="K9" s="23" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10">
@@ -30816,13 +30844,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="F10" s="21">
         <v>1.0</v>
@@ -30830,13 +30858,13 @@
       <c r="G10" s="21">
         <v>0.0</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>74</v>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="39" t="s">
-        <v>88</v>
+      <c r="K10" s="40" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -30845,18 +30873,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="23" t="s">
-        <v>74</v>
+      <c r="H11" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -30868,18 +30896,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="23" t="s">
-        <v>74</v>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -31003,47 +31031,47 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -31052,26 +31080,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="21">
         <v>11.0</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
-        <v>74</v>
+      <c r="H5" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31081,20 +31109,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="21">
         <v>100.0</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31106,24 +31134,24 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F7" s="21">
         <v>7.0</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="23" t="s">
-        <v>74</v>
+      <c r="H7" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K7" s="20"/>
     </row>
@@ -31133,25 +31161,25 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="45">
+        <v>187</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="23">
         <v>1.0</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="23" t="s">
-        <v>74</v>
+      <c r="H8" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="45" t="s">
-        <v>186</v>
+      <c r="K8" s="23" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="9">
@@ -31160,13 +31188,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="F9" s="21">
         <v>1.0</v>
@@ -31174,13 +31202,13 @@
       <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="39" t="s">
-        <v>88</v>
+      <c r="K9" s="40" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -31189,18 +31217,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="23" t="s">
-        <v>74</v>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -31212,18 +31240,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23" t="s">
-        <v>74</v>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -31346,50 +31374,50 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>193</v>
+        <v>63</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -31398,26 +31426,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="21">
         <v>11.0</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
-        <v>74</v>
+      <c r="H5" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31427,27 +31455,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="21">
         <v>11.0</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
@@ -31456,20 +31484,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F7" s="21">
         <v>11.0</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31481,13 +31509,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="F8" s="21">
         <v>1.0</v>
@@ -31495,13 +31523,13 @@
       <c r="G8" s="21">
         <v>0.0</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>74</v>
+      <c r="H8" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="39" t="s">
-        <v>88</v>
+      <c r="K8" s="40" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -31510,18 +31538,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -31533,18 +31561,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
-        <v>74</v>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -31560,7 +31588,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -31682,47 +31710,47 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -31731,26 +31759,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="21">
         <v>11.0</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31760,20 +31788,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="21">
         <v>255.0</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="20"/>
@@ -31785,20 +31813,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="F7" s="21">
         <v>255.0</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="20"/>
       <c r="K7" s="21"/>
@@ -31808,14 +31836,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>83</v>
+      <c r="C8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F8" s="21">
         <v>1.0</v>
@@ -31824,12 +31852,12 @@
         <v>0.0</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L8" s="18"/>
     </row>
@@ -31839,13 +31867,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="F9" s="21">
         <v>1.0</v>
@@ -31853,13 +31881,13 @@
       <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -31868,18 +31896,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="23" t="s">
-        <v>74</v>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -31891,18 +31919,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23" t="s">
-        <v>74</v>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -32025,47 +32053,47 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -32074,26 +32102,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="21">
         <v>11.0</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
-        <v>74</v>
+      <c r="H5" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32103,27 +32131,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="21">
         <v>11.0</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="20"/>
-      <c r="K6" s="26" t="s">
-        <v>98</v>
+      <c r="K6" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -32132,13 +32160,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F7" s="21">
         <v>1.0</v>
@@ -32147,12 +32175,12 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -32161,18 +32189,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="23" t="s">
-        <v>74</v>
+      <c r="H8" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -32184,18 +32212,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F9" s="21"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -32210,7 +32238,7 @@
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -32348,47 +32376,47 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -32397,26 +32425,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="21">
         <v>11.0</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
-        <v>74</v>
+      <c r="H5" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32426,27 +32454,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="21">
         <v>11.0</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="20"/>
-      <c r="K6" s="26" t="s">
-        <v>98</v>
+      <c r="K6" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -32455,20 +32483,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" s="21">
         <v>255.0</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -32480,23 +32508,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="23" t="s">
-        <v>74</v>
+      <c r="H8" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="27" t="s">
-        <v>109</v>
+      <c r="K8" s="28" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -32505,20 +32533,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9" s="21">
         <v>100.0</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -32530,13 +32558,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="F10" s="21">
         <v>1.0</v>
@@ -32544,13 +32572,13 @@
       <c r="G10" s="21">
         <v>0.0</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>74</v>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -32559,18 +32587,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="25" t="s">
-        <v>74</v>
+      <c r="H11" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -32582,18 +32610,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -32623,7 +32651,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="21"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -32638,7 +32666,7 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="21"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -32653,14 +32681,14 @@
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="21"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
     <row r="21">
-      <c r="K21" s="28"/>
+      <c r="K21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32705,50 +32733,50 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>113</v>
+        <v>63</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -32756,57 +32784,57 @@
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>72</v>
+      <c r="C5" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="31">
+        <v>75</v>
+      </c>
+      <c r="F5" s="32">
         <v>11.0</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="I5" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="36"/>
     </row>
     <row r="6">
       <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>116</v>
+      <c r="C6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>118</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="30">
+        <v>75</v>
+      </c>
+      <c r="F6" s="31">
         <v>11.0</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="30" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="31" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -32814,28 +32842,28 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>118</v>
+      <c r="C7" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="30">
+        <v>75</v>
+      </c>
+      <c r="F7" s="31">
         <v>11.0</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="30" t="s">
-        <v>119</v>
+      <c r="G7" s="36"/>
+      <c r="H7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="31" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -32843,28 +32871,28 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>121</v>
+      <c r="C8" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="30">
+        <v>75</v>
+      </c>
+      <c r="F8" s="31">
         <v>11.0</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="30" t="s">
-        <v>122</v>
+      <c r="G8" s="36"/>
+      <c r="H8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9">
@@ -32872,28 +32900,28 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>124</v>
+      <c r="C9" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="30">
+        <v>75</v>
+      </c>
+      <c r="F9" s="31">
         <v>11.0</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="30" t="s">
-        <v>125</v>
+      <c r="G9" s="36"/>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="31" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -32901,55 +32929,55 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>127</v>
+      <c r="C10" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>129</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="30">
+        <v>130</v>
+      </c>
+      <c r="F10" s="31">
         <v>7.0</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="30"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="31"/>
     </row>
     <row r="11">
       <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>131</v>
+      <c r="C11" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="30">
+        <v>86</v>
+      </c>
+      <c r="F11" s="31">
         <v>1.0</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <v>0.0</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="30" t="s">
-        <v>132</v>
+      <c r="H11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -32957,28 +32985,28 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="F12" s="31">
         <v>1.0</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="31">
         <v>0.0</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30" t="s">
-        <v>133</v>
+      <c r="H12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -32986,46 +33014,46 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>90</v>
+      <c r="C13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+        <v>93</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="30"/>
+        <v>76</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14">
       <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15">
       <c r="B15" s="20">
@@ -33037,7 +33065,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
@@ -33052,16 +33080,16 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
     <row r="17">
-      <c r="H17" s="37"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18">
-      <c r="H18" s="37"/>
+      <c r="H18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33105,47 +33133,47 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -33153,57 +33181,57 @@
         <f t="shared" ref="B5:B9" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>72</v>
+      <c r="C5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="31">
+        <v>75</v>
+      </c>
+      <c r="F5" s="32">
         <v>11.0</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="I5" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="36"/>
     </row>
     <row r="6">
       <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>137</v>
+      <c r="C6" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="31">
+        <v>75</v>
+      </c>
+      <c r="F6" s="32">
         <v>11.0</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="26" t="s">
-        <v>138</v>
+      <c r="G6" s="33"/>
+      <c r="H6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="27" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -33211,94 +33239,94 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="C7" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8">
       <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="D8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9">
       <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10">
       <c r="B10" s="21">
         <v>6.0</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="30">
+      <c r="F10" s="31">
         <v>1.0</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="39" t="s">
-        <v>88</v>
+      <c r="G10" s="36"/>
+      <c r="H10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="40" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -33306,46 +33334,46 @@
         <f t="shared" ref="B11:B17" si="2">row()-4</f>
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>90</v>
+      <c r="C11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="30"/>
+        <v>93</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12">
       <c r="B12" s="20">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13">
       <c r="B13" s="20">
@@ -33459,52 +33487,52 @@
         <v>2</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -33512,57 +33540,57 @@
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>72</v>
+      <c r="C5" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="31">
+        <v>75</v>
+      </c>
+      <c r="F5" s="32">
         <v>11.0</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="I5" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="36"/>
     </row>
     <row r="6">
       <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>149</v>
+      <c r="C6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>151</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="31">
+        <v>75</v>
+      </c>
+      <c r="F6" s="32">
         <v>11.0</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="26" t="s">
-        <v>150</v>
+      <c r="G6" s="33"/>
+      <c r="H6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="27" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7">
@@ -33570,28 +33598,28 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>151</v>
+      <c r="C7" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>153</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="31">
+        <v>75</v>
+      </c>
+      <c r="F7" s="32">
         <v>11.0</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="26" t="s">
-        <v>152</v>
+      <c r="G7" s="33"/>
+      <c r="H7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="27" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8">
@@ -33599,51 +33627,53 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>154</v>
+      <c r="C8" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>156</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="30">
+        <v>81</v>
+      </c>
+      <c r="F8" s="31">
         <v>4.0</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9">
       <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="F9" s="31">
         <v>1.0</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="30" t="s">
-        <v>133</v>
+      <c r="G9" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10">
@@ -33651,61 +33681,61 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>90</v>
+      <c r="C10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="30"/>
+        <v>93</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11">
       <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="30"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12">
       <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13">
       <c r="B13" s="20">
@@ -33809,47 +33839,47 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -33858,26 +33888,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>72</v>
+        <v>138</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="21">
         <v>11.0</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="23" t="s">
-        <v>74</v>
+      <c r="H5" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -33887,20 +33917,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>159</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="21">
         <v>32.0</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="23" t="s">
-        <v>74</v>
+      <c r="H6" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -33912,20 +33942,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>161</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F7" s="21">
         <v>11.0</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="23" t="s">
-        <v>74</v>
+      <c r="G7" s="44"/>
+      <c r="H7" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -33937,18 +33967,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>163</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
-        <v>74</v>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -33960,24 +33990,24 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>165</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9" s="21">
         <v>255.0</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="43"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10">
       <c r="B10" s="20">
@@ -33985,20 +34015,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>167</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F10" s="21">
         <v>255.0</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="23" t="s">
-        <v>74</v>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -34010,18 +34040,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23" t="s">
-        <v>74</v>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -34033,13 +34063,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="F12" s="21">
         <v>1.0</v>
@@ -34047,13 +34077,13 @@
       <c r="G12" s="21">
         <v>0.0</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>74</v>
+      <c r="H12" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="39" t="s">
-        <v>88</v>
+      <c r="K12" s="40" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -34062,18 +34092,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="23" t="s">
-        <v>74</v>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -34085,18 +34115,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23" t="s">
-        <v>74</v>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -34156,54 +34186,54 @@
       <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="44"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>169</v>
+        <v>63</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -34212,26 +34242,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>72</v>
+        <v>117</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="21">
         <v>11.0</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="23" t="s">
-        <v>74</v>
+      <c r="H5" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -34241,25 +34271,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>173</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="21">
         <v>2.0</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="23" t="s">
-        <v>74</v>
+      <c r="H6" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
@@ -34268,18 +34298,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>176</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="23" t="s">
-        <v>74</v>
+      <c r="H7" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -34291,17 +34321,17 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>161</v>
+        <v>177</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>163</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="41"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -34312,13 +34342,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="F9" s="21">
         <v>1.0</v>
@@ -34326,13 +34356,13 @@
       <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
@@ -34341,18 +34371,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="23" t="s">
-        <v>74</v>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -34364,18 +34394,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23" t="s">
-        <v>74</v>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>

--- a/document/データベース定義書-ちーむあるぺん.xlsx
+++ b/document/データベース定義書-ちーむあるぺん.xlsx
@@ -17,17 +17,17 @@
     <sheet state="visible" name="points" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_4FA29F87_B96B_4045_B36B_282700644EB5_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_963B1EBE_C4CE_4E3D_B2E0_C2867C176633_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{4FA29F87-B96B-4045-B36B-282700644EB5}" name="フィルタ 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{963B1EBE-C4CE-4E3D-B2E0-C2867C176633}" name="フィルタ 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="202">
   <si>
     <t>改定履歴</t>
   </si>
@@ -569,7 +569,10 @@
     <t>割引情報を保持するテーブル</t>
   </si>
   <si>
-    <t>任意課題のため、実装は必須課題が終わったあと　料金・割引ページで表示させる割引の数は１０個まで</t>
+    <t xml:space="preserve">任意課題のため、実装は必須課題が終わったあと　料金・割引ページで表示させる割引の数は１０個まで　　</t>
+  </si>
+  <si>
+    <t>2/16 : 並び順データ型をTINYINTに変更、備考欄を削除</t>
   </si>
   <si>
     <t>割引名</t>
@@ -593,10 +596,10 @@
     <t>row</t>
   </si>
   <si>
-    <t>cakePHPの仕様上TINYINTは真偽値として認識する可能性があるためINTを使う</t>
+    <t>チケット情報を保持するテーブル</t>
   </si>
   <si>
-    <t>チケット情報を保持するテーブル</t>
+    <t>2/16 : 並び順データ型をTINYINTに変更、備考欄を削除 デフォルト値を1に変更</t>
   </si>
   <si>
     <t>チケット種別</t>
@@ -609,6 +612,9 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>TNYINT</t>
   </si>
   <si>
     <t>ポイント情報を保持するテーブル</t>
@@ -636,7 +642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -660,10 +666,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -671,9 +673,6 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -743,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -787,12 +786,6 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -809,9 +802,6 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -821,7 +811,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -830,26 +820,26 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -860,9 +850,6 @@
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -877,7 +864,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2622,7 +2612,7 @@
       <c r="B42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -2655,10 +2645,10 @@
       <c r="A43" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2691,10 +2681,10 @@
       <c r="A44" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -2727,10 +2717,10 @@
       <c r="A45" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="9" t="s">
@@ -2763,10 +2753,10 @@
       <c r="A46" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="9" t="s">
@@ -2796,16 +2786,16 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="16">
+      <c r="A47" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="3"/>
@@ -2832,16 +2822,16 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="16">
+      <c r="A48" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="3"/>
@@ -2871,10 +2861,10 @@
       <c r="A49" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -2907,10 +2897,10 @@
       <c r="A50" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -2943,10 +2933,10 @@
       <c r="A51" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -2979,10 +2969,10 @@
       <c r="A52" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="9" t="s">
@@ -3015,10 +3005,10 @@
       <c r="A53" s="13">
         <v>44239.0</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3048,16 +3038,16 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="16">
+      <c r="A54" s="13">
         <v>44243.0</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="3"/>
@@ -3084,16 +3074,16 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="16">
+      <c r="A55" s="13">
         <v>44243.0</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="3"/>
@@ -3120,10 +3110,10 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3148,10 +3138,10 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3176,10 +3166,10 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3204,10 +3194,10 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3232,10 +3222,10 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3260,10 +3250,10 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3288,10 +3278,10 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3316,10 +3306,10 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3344,10 +3334,10 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3372,10 +3362,10 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3400,10 +3390,10 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3428,10 +3418,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3456,10 +3446,10 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3484,10 +3474,10 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -30617,7 +30607,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4FA29F87-B96B-4045-B36B-282700644EB5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{963B1EBE-C4CE-4E3D-B2E0-C2867C176633}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$D$55"/>
     </customSheetView>
   </customSheetViews>
@@ -30632,15 +30622,15 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
+      <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="3.29"/>
     <col customWidth="1" min="3" max="3" width="23.29"/>
-    <col customWidth="1" min="4" max="4" width="21.0"/>
+    <col customWidth="1" min="4" max="4" width="15.71"/>
     <col customWidth="1" min="5" max="5" width="20.14"/>
     <col customWidth="1" min="6" max="6" width="5.29"/>
     <col customWidth="1" min="7" max="7" width="16.86"/>
@@ -30649,350 +30639,355 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K5" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="20">
-        <f t="shared" ref="B5:B8" si="1">row()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="21" t="s">
+    <row r="6">
+      <c r="B6" s="18">
+        <f t="shared" ref="B6:B9" si="1">row()-4</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F6" s="19">
         <v>11.0</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="21">
-        <v>100.0</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="22" t="s">
+      <c r="D7" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="D9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F9" s="19">
         <v>255.0</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="22" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="21">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="19">
         <v>5.0</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="D10" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="19">
         <v>1.0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G10" s="19">
         <v>0.0</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H10" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="20">
-        <f t="shared" ref="B10:B17" si="2">row()-4</f>
-        <v>6</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="18">
+        <f t="shared" ref="B11:B18" si="2">row()-4</f>
+        <v>7</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F11" s="19">
         <v>1.0</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G11" s="19">
         <v>0.0</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="40" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="20">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-    </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="C13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17">
-      <c r="B17" s="20">
+      <c r="B17" s="18">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31022,315 +31017,318 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="43" t="s">
         <v>63</v>
       </c>
+      <c r="C3" s="27" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>11.0</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>100.0</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>7.0</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="D8" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="19">
         <v>1.0</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="23" t="s">
-        <v>188</v>
-      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>1.0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>0.0</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="40" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31365,308 +31363,308 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>194</v>
+      <c r="C2" s="16" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>195</v>
+      <c r="C3" s="44" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>11.0</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>11.0</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21" t="s">
-        <v>197</v>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>11.0</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>1.0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>0.0</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="40" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31701,315 +31699,315 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>11.0</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>255.0</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>255.0</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="I7" s="18"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>1.0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>0.0</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="18"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>1.0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>0.0</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32044,295 +32042,295 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>11.0</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>11.0</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>1.0</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>0.0</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32367,328 +32365,328 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>11.0</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>11.0</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>255.0</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="28" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>100.0</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>1.0</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>0.0</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="26" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="22" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="21">
-      <c r="K21" s="29"/>
+      <c r="K21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32724,372 +32722,372 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="29">
         <v>11.0</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>11.0</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="31" t="s">
+      <c r="J6" s="33"/>
+      <c r="K6" s="28" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="28">
         <v>11.0</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="31" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <v>11.0</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="33"/>
+      <c r="K8" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="28">
         <v>11.0</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="31" t="s">
+      <c r="J9" s="33"/>
+      <c r="K9" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="28">
         <v>7.0</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="31" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="28">
         <v>1.0</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="28">
         <v>0.0</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="31" t="s">
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <v>1.0</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="28">
         <v>0.0</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="31" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="28" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="31"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="24" t="s">
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17">
-      <c r="H17" s="38"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18">
-      <c r="H18" s="38"/>
+      <c r="H18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33124,331 +33122,331 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B9" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="29">
         <v>11.0</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="29">
         <v>11.0</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="33"/>
+      <c r="K6" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="24" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10">
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <v>6.0</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="28">
         <v>1.0</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="39" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="40" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" ref="B11:B17" si="2">row()-4</f>
         <v>7</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="31"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="24" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="31"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17">
-      <c r="B17" s="20">
+      <c r="B17" s="18">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33483,319 +33481,319 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="29">
         <v>11.0</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="29">
         <v>11.0</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="29">
         <v>11.0</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="27" t="s">
+      <c r="J7" s="30"/>
+      <c r="K7" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <v>4.0</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="28">
         <v>1.0</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="28">
         <v>0.0</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="31" t="s">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="28" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="31"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="31"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="31"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33830,322 +33828,322 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B15" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>11.0</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>32.0</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>11.0</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>255.0</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="45"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>255.0</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>1.0</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>0.0</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="40" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34180,311 +34178,311 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="46"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>11.0</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>2.0</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="24" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>1.0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>0.0</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11">
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/document/データベース定義書-ちーむあるぺん.xlsx
+++ b/document/データベース定義書-ちーむあるぺん.xlsx
@@ -17,17 +17,17 @@
     <sheet state="visible" name="points" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_963B1EBE_C4CE_4E3D_B2E0_C2867C176633_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_83B74AA0_92FC_4FC7_8429_DFFA65C92323_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{963B1EBE-C4CE-4E3D-B2E0-C2867C176633}" name="フィルタ 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{83B74AA0-92FC-4FC7-8429-DFFA65C92323}" name="フィルタ 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="203">
   <si>
     <t>改定履歴</t>
   </si>
@@ -440,6 +440,9 @@
     <t>上映スケジュール情報を保持するテーブル</t>
   </si>
   <si>
+    <t>2/16 : 削除フラグにデフォルト値0を追加</t>
+  </si>
+  <si>
     <t>上映スケジュールID</t>
   </si>
   <si>
@@ -642,7 +645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -673,6 +676,9 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -742,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -845,6 +851,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -866,9 +878,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30607,7 +30616,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{963B1EBE-C4CE-4E3D-B2E0-C2867C176633}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{83B74AA0-92FC-4FC7-8429-DFFA65C92323}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$D$55"/>
     </customSheetView>
   </customSheetViews>
@@ -30651,20 +30660,20 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
@@ -30734,7 +30743,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>113</v>
@@ -30759,10 +30768,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>130</v>
@@ -30786,10 +30795,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>81</v>
@@ -30810,10 +30819,10 @@
         <v>5.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>86</v>
@@ -30824,7 +30833,7 @@
       <c r="G10" s="19">
         <v>0.0</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="38" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="18"/>
@@ -30856,7 +30865,7 @@
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="39" t="s">
         <v>90</v>
       </c>
     </row>
@@ -31029,15 +31038,15 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4">
@@ -31107,10 +31116,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>81</v>
@@ -31132,10 +31141,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>130</v>
@@ -31159,13 +31168,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F8" s="19">
         <v>1.0</v>
@@ -31205,7 +31214,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="39" t="s">
         <v>90</v>
       </c>
     </row>
@@ -31375,15 +31384,15 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>197</v>
+      <c r="C3" s="36" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4">
@@ -31424,7 +31433,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>74</v>
@@ -31473,7 +31482,7 @@
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -31482,10 +31491,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -31526,7 +31535,7 @@
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="39" t="s">
         <v>90</v>
       </c>
     </row>
@@ -33141,6 +33150,9 @@
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
+      <c r="B3" s="36" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
@@ -33180,7 +33192,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>74</v>
@@ -33209,10 +33221,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -33229,7 +33241,7 @@
       </c>
       <c r="J6" s="33"/>
       <c r="K6" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -33238,10 +33250,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>110</v>
@@ -33261,13 +33273,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="33"/>
@@ -33284,13 +33296,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>146</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>145</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="33"/>
@@ -33317,13 +33329,15 @@
       <c r="F10" s="28">
         <v>1.0</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="36" t="s">
+      <c r="G10" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="38" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="39" t="s">
         <v>90</v>
       </c>
     </row>
@@ -33485,7 +33499,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -33493,7 +33507,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -33539,7 +33553,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>74</v>
@@ -33571,7 +33585,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -33588,7 +33602,7 @@
       </c>
       <c r="J6" s="30"/>
       <c r="K6" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
@@ -33597,10 +33611,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -33617,7 +33631,7 @@
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -33626,10 +33640,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>81</v>
@@ -33840,7 +33854,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -33886,9 +33900,9 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -33915,10 +33929,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="39" t="s">
         <v>159</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>160</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>81</v>
@@ -33940,10 +33954,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="40" t="s">
         <v>161</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -33951,7 +33965,7 @@
       <c r="F7" s="19">
         <v>11.0</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
@@ -33965,10 +33979,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="39" t="s">
         <v>163</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>110</v>
@@ -33988,10 +34002,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="40" t="s">
         <v>165</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>166</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>81</v>
@@ -34005,7 +34019,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10">
       <c r="B10" s="18">
@@ -34013,10 +34027,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="40" t="s">
         <v>167</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>168</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>81</v>
@@ -34038,10 +34052,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>110</v>
@@ -34080,7 +34094,7 @@
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="39" t="s">
         <v>90</v>
       </c>
     </row>
@@ -34184,14 +34198,14 @@
       <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="42"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -34199,7 +34213,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -34242,7 +34256,7 @@
       <c r="C5" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="40" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -34269,10 +34283,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="39" t="s">
         <v>173</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -34287,7 +34301,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
@@ -34296,10 +34310,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="39" t="s">
         <v>176</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>110</v>
@@ -34319,17 +34333,17 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>163</v>
+        <v>178</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -34342,7 +34356,7 @@
       <c r="C9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="42" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -34360,7 +34374,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
@@ -34371,7 +34385,7 @@
       <c r="C10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="41" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -34394,7 +34408,7 @@
       <c r="C11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="41" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="19" t="s">

--- a/document/データベース定義書-ちーむあるぺん.xlsx
+++ b/document/データベース定義書-ちーむあるぺん.xlsx
@@ -17,11 +17,11 @@
     <sheet state="visible" name="points" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_83B74AA0_92FC_4FC7_8429_DFFA65C92323_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D18ED3B9_170F_4863_8050_4756EFA850C3_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{83B74AA0-92FC-4FC7-8429-DFFA65C92323}" name="フィルタ 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{D18ED3B9-170F-4863-8050-4756EFA850C3}" name="フィルタ 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">任意課題のため、実装は必須課題が終わったあと　料金・割引ページで表示させる割引の数は１０個まで　　</t>
   </si>
   <si>
-    <t>2/16 : 並び順データ型をTINYINTに変更、備考欄を削除</t>
+    <t>2/16 : 並び順のデータ型をTINYINTに変更</t>
   </si>
   <si>
     <t>割引名</t>
@@ -602,7 +602,7 @@
     <t>チケット情報を保持するテーブル</t>
   </si>
   <si>
-    <t>2/16 : 並び順データ型をTINYINTに変更、備考欄を削除 デフォルト値を1に変更</t>
+    <t>2/16 : 並び順データ型をTINYINTに変更 　デフォルト値に0を追加</t>
   </si>
   <si>
     <t>チケット種別</t>
@@ -30616,7 +30616,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{83B74AA0-92FC-4FC7-8429-DFFA65C92323}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D18ED3B9-170F-4863-8050-4756EFA850C3}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$D$55"/>
     </customSheetView>
   </customSheetViews>

--- a/document/データベース定義書-ちーむあるぺん.xlsx
+++ b/document/データベース定義書-ちーむあるぺん.xlsx
@@ -17,17 +17,17 @@
     <sheet state="visible" name="points" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_D18ED3B9_170F_4863_8050_4756EFA850C3_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3AAED0B5_6441_4F3F_B6C5_90C62EFB991D_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{D18ED3B9-170F-4863-8050-4756EFA850C3}" name="フィルタ 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{3AAED0B5-6441-4F3F-B6C5-90C62EFB991D}" name="フィルタ 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="204">
   <si>
     <t>改定履歴</t>
   </si>
@@ -377,6 +377,9 @@
     <t>決済金額は100万円までしか対応しない。限度額をユーザーに見えるように実装し、限度額を超える決済入力があった場合はバリデーションエラーを出す。</t>
   </si>
   <si>
+    <t>2021/02/18 : 決済金額のデータ型をdecimalからintに変更</t>
+  </si>
+  <si>
     <t>決済ID</t>
   </si>
   <si>
@@ -417,9 +420,6 @@
   </si>
   <si>
     <t>total_payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECIMAL </t>
   </si>
   <si>
     <t>UNSIGNED</t>
@@ -575,7 +575,10 @@
     <t xml:space="preserve">任意課題のため、実装は必須課題が終わったあと　料金・割引ページで表示させる割引の数は１０個まで　　</t>
   </si>
   <si>
-    <t>2/16 : 並び順のデータ型をTINYINTに変更</t>
+    <t>2021/02/16 : 並び順のデータ型をTINYINTに変更</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/02/18 : 割引金額のデータ型をdecimalからintに変更                </t>
   </si>
   <si>
     <t>割引名</t>
@@ -602,7 +605,10 @@
     <t>チケット情報を保持するテーブル</t>
   </si>
   <si>
-    <t>2/16 : 並び順データ型をTINYINTに変更 　デフォルト値に0を追加</t>
+    <t>2021/02/16 : 並び順データ型をTINYINTに変更 　デフォルト値に0を追加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/02/18 : 料金のデータ型をdecimalからintに変更                </t>
   </si>
   <si>
     <t>チケット種別</t>
@@ -615,9 +621,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>TNYINT</t>
   </si>
   <si>
     <t>ポイント情報を保持するテーブル</t>
@@ -645,7 +648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -676,9 +679,6 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -826,8 +826,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -854,9 +860,6 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -875,9 +878,6 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30616,7 +30616,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D18ED3B9-170F-4863-8050-4756EFA850C3}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3AAED0B5-6441-4F3F-B6C5-90C62EFB991D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$D$55"/>
     </customSheetView>
   </customSheetViews>
@@ -30631,8 +30631,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
+      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -30664,102 +30664,82 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K6" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="18">
-        <f t="shared" ref="B6:B9" si="1">row()-4</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="18"/>
     </row>
     <row r="7">
       <c r="B7" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B7:B10" si="1">row()-4</f>
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F7" s="19">
-        <v>100.0</v>
+        <v>11.0</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="K7" s="18"/>
     </row>
     <row r="8">
@@ -30771,22 +30751,20 @@
         <v>184</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="F8" s="19">
-        <v>7.0</v>
+        <v>100.0</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="20" t="s">
         <v>76</v>
       </c>
       <c r="I8" s="18"/>
-      <c r="J8" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
     <row r="9">
@@ -30795,61 +30773,61 @@
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F9" s="19">
-        <v>255.0</v>
+        <v>7.0</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="20" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10">
-      <c r="B10" s="19">
-        <v>5.0</v>
+      <c r="B10" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="38" t="s">
+        <v>255.0</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="20" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11">
-      <c r="B11" s="18">
-        <f t="shared" ref="B11:B18" si="2">row()-4</f>
-        <v>7</v>
+      <c r="B11" s="19">
+        <v>5.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>86</v>
@@ -30860,37 +30838,41 @@
       <c r="G11" s="19">
         <v>0.0</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="39" t="s">
         <v>76</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="39" t="s">
-        <v>90</v>
-      </c>
+      <c r="K11" s="19"/>
     </row>
     <row r="12">
       <c r="B12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B12:B19" si="2">row()-4</f>
         <v>8</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.0</v>
+      </c>
       <c r="H12" s="21" t="s">
         <v>76</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="40" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="18">
@@ -30898,16 +30880,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="21" t="s">
         <v>76</v>
       </c>
@@ -30920,12 +30902,20 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
@@ -30938,12 +30928,12 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16">
       <c r="B16" s="18">
@@ -30953,7 +30943,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
       <c r="I16" s="18"/>
@@ -30968,7 +30958,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
       <c r="I17" s="18"/>
@@ -30983,20 +30973,36 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
+    <row r="19">
+      <c r="B19" s="18">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31009,8 +31015,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
+      <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -31038,101 +31044,81 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>191</v>
+      <c r="C3" s="28" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="18">
-        <f t="shared" ref="B5:B16" si="1">row()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="18"/>
     </row>
     <row r="6">
       <c r="B6" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B6:B17" si="1">row()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F6" s="19">
-        <v>100.0</v>
+        <v>11.0</v>
       </c>
       <c r="G6" s="18"/>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="K6" s="18"/>
     </row>
     <row r="7">
@@ -31147,19 +31133,17 @@
         <v>195</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="F7" s="19">
-        <v>7.0</v>
+        <v>100.0</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>76</v>
       </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8">
@@ -31168,26 +31152,26 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="F8" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.0</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="G8" s="18"/>
       <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="18"/>
     </row>
     <row r="9">
       <c r="B9" s="18">
@@ -31195,10 +31179,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>86</v>
@@ -31214,9 +31198,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
-      </c>
+      <c r="K9" s="19"/>
     </row>
     <row r="10">
       <c r="B10" s="18">
@@ -31224,22 +31206,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="40" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="18">
@@ -31247,37 +31235,45 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="19"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12">
       <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13">
       <c r="B13" s="18">
@@ -31287,12 +31283,12 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14">
       <c r="B14" s="18">
@@ -31302,7 +31298,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="18"/>
@@ -31317,7 +31313,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
       <c r="I15" s="18"/>
@@ -31332,18 +31328,35 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
     </row>
+    <row r="17">
+      <c r="B17" s="18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31384,15 +31397,15 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>198</v>
+      <c r="C3" s="38" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4">
@@ -31433,7 +31446,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>74</v>
@@ -31482,7 +31495,7 @@
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
@@ -31491,10 +31504,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -31535,7 +31548,7 @@
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="40" t="s">
         <v>90</v>
       </c>
     </row>
@@ -32714,8 +32727,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
+      <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -32747,130 +32760,106 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="18">
-        <f t="shared" ref="B5:B16" si="1">row()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="29">
-        <v>11.0</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="33"/>
     </row>
     <row r="6">
       <c r="B6" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B6:B17" si="1">row()-4</f>
         <v>2</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>118</v>
+      <c r="D6" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="31">
         <v>11.0</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="28" t="s">
-        <v>119</v>
-      </c>
+      <c r="I6" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="35"/>
     </row>
     <row r="7">
       <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>120</v>
+      <c r="C7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="30">
         <v>11.0</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="28" t="s">
-        <v>121</v>
+      <c r="J7" s="35"/>
+      <c r="K7" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -32878,28 +32867,28 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>123</v>
+      <c r="C8" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="30">
         <v>11.0</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="28" t="s">
-        <v>124</v>
+      <c r="J8" s="35"/>
+      <c r="K8" s="30" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -32907,28 +32896,28 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>126</v>
+      <c r="C9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="30">
         <v>11.0</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="28" t="s">
-        <v>127</v>
+      <c r="J9" s="35"/>
+      <c r="K9" s="30" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -32936,84 +32925,84 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>129</v>
+      <c r="C10" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="G10" s="33"/>
+        <v>75</v>
+      </c>
+      <c r="F10" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="G10" s="35"/>
       <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="28"/>
+      <c r="I10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="30" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>133</v>
+      <c r="C11" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="28">
-        <v>0.0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F11" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="G11" s="35"/>
       <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="30"/>
     </row>
     <row r="12">
       <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>89</v>
+      <c r="C12" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="30">
         <v>1.0</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="30">
         <v>0.0</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="28" t="s">
-        <v>135</v>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -33021,61 +33010,75 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>92</v>
+      <c r="C13" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="28"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="30" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>95</v>
+      <c r="C14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="21" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15">
       <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16">
       <c r="B16" s="18">
@@ -33085,7 +33088,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="21"/>
       <c r="I16" s="18"/>
@@ -33093,16 +33096,33 @@
       <c r="K16" s="18"/>
     </row>
     <row r="17">
-      <c r="H17" s="35"/>
+      <c r="B17" s="18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18">
-      <c r="H18" s="35"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19">
+      <c r="H19" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -33150,7 +33170,7 @@
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>137</v>
       </c>
     </row>
@@ -33191,55 +33211,55 @@
         <f t="shared" ref="B5:B9" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="31">
         <v>11.0</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6">
       <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="30" t="s">
         <v>140</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="31">
         <v>11.0</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="24" t="s">
         <v>141</v>
       </c>
@@ -33249,95 +33269,95 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8">
       <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9">
       <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10">
       <c r="B10" s="19">
         <v>6.0</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="30" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="30">
         <v>1.0</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="30">
         <v>0.0</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="39" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="40" t="s">
         <v>90</v>
       </c>
     </row>
@@ -33346,46 +33366,46 @@
         <f t="shared" ref="B11:B17" si="2">row()-4</f>
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="36" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12">
       <c r="B12" s="18">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13">
       <c r="B13" s="18">
@@ -33552,55 +33572,55 @@
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="31">
         <v>11.0</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6">
       <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="30" t="s">
         <v>152</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="31">
         <v>11.0</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="24" t="s">
         <v>153</v>
       </c>
@@ -33610,26 +33630,26 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="30" t="s">
         <v>154</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="31">
         <v>11.0</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="24" t="s">
         <v>155</v>
       </c>
@@ -33639,52 +33659,52 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="30" t="s">
         <v>157</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="30">
         <v>4.0</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9">
       <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="30" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="30">
         <v>1.0</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="30">
         <v>0.0</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="28" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="30" t="s">
         <v>135</v>
       </c>
     </row>
@@ -33693,61 +33713,61 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="30" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="28"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11">
       <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12">
       <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="28"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13">
       <c r="B13" s="18">
@@ -33902,7 +33922,7 @@
       <c r="C5" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -33931,7 +33951,7 @@
       <c r="C6" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>160</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -33956,7 +33976,7 @@
       <c r="C7" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="43" t="s">
         <v>162</v>
       </c>
       <c r="E7" s="19" t="s">
@@ -33965,7 +33985,7 @@
       <c r="F7" s="19">
         <v>11.0</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="21" t="s">
         <v>76</v>
       </c>
@@ -33981,7 +34001,7 @@
       <c r="C8" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>164</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -34004,7 +34024,7 @@
       <c r="C9" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>166</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -34019,7 +34039,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="43"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10">
       <c r="B10" s="18">
@@ -34029,7 +34049,7 @@
       <c r="C10" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="43" t="s">
         <v>168</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -34094,7 +34114,7 @@
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="40" t="s">
         <v>90</v>
       </c>
     </row>
@@ -34198,7 +34218,7 @@
       <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
@@ -34212,7 +34232,7 @@
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>172</v>
       </c>
     </row>
@@ -34254,9 +34274,9 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -34285,7 +34305,7 @@
       <c r="C6" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -34312,7 +34332,7 @@
       <c r="C7" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>177</v>
       </c>
       <c r="E7" s="19" t="s">
@@ -34335,7 +34355,7 @@
       <c r="C8" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>164</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -34343,7 +34363,7 @@
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="41"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -34356,7 +34376,7 @@
       <c r="C9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -34385,7 +34405,7 @@
       <c r="C10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="42" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -34408,7 +34428,7 @@
       <c r="C11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="42" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="19" t="s">

--- a/document/データベース定義書-ちーむあるぺん.xlsx
+++ b/document/データベース定義書-ちーむあるぺん.xlsx
@@ -17,17 +17,17 @@
     <sheet state="visible" name="points" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_3AAED0B5_6441_4F3F_B6C5_90C62EFB991D_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_89C2EE62_0D82_4B14_A39F_F46A64746922_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{3AAED0B5-6441-4F3F-B6C5-90C62EFB991D}" name="フィルタ 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{89C2EE62-0D82-4B14-A39F-F46A64746922}" name="フィルタ 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="205">
   <si>
     <t>改定履歴</t>
   </si>
@@ -380,7 +380,16 @@
     <t>2021/02/18 : 決済金額のデータ型をdecimalからintに変更</t>
   </si>
   <si>
+    <t>2021/02/18 : 予約IDをのカラムを追加</t>
+  </si>
+  <si>
     <t>決済ID</t>
+  </si>
+  <si>
+    <t>reservation_id</t>
+  </si>
+  <si>
+    <t>reservationsテーブルのidカラムに対して外部キー参照</t>
   </si>
   <si>
     <t>消費税ID</t>
@@ -483,12 +492,6 @@
   </si>
   <si>
     <t>座席予約ID</t>
-  </si>
-  <si>
-    <t>reservation_id</t>
-  </si>
-  <si>
-    <t>reservationsテーブルのidカラムに対して外部キー参照</t>
   </si>
   <si>
     <t>screening_schedule_id</t>
@@ -851,6 +854,9 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -859,9 +865,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -30616,7 +30619,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3AAED0B5-6441-4F3F-B6C5-90C62EFB991D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{89C2EE62-0D82-4B14-A39F-F46A64746922}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$D$55"/>
     </customSheetView>
   </customSheetViews>
@@ -30660,7 +30663,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3">
@@ -30668,17 +30671,17 @@
         <v>63</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6">
@@ -30719,7 +30722,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>74</v>
@@ -30748,7 +30751,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>113</v>
@@ -30773,10 +30776,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>75</v>
@@ -30790,7 +30793,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9" s="18"/>
     </row>
@@ -30800,10 +30803,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>81</v>
@@ -30824,10 +30827,10 @@
         <v>5.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>86</v>
@@ -30838,7 +30841,7 @@
       <c r="G11" s="19">
         <v>0.0</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="36" t="s">
         <v>76</v>
       </c>
       <c r="I11" s="18"/>
@@ -31044,7 +31047,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
@@ -31052,12 +31055,12 @@
         <v>63</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5">
@@ -31098,7 +31101,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>74</v>
@@ -31127,10 +31130,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>81</v>
@@ -31152,10 +31155,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>75</v>
@@ -31169,7 +31172,7 @@
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K8" s="18"/>
     </row>
@@ -31179,10 +31182,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>86</v>
@@ -31397,15 +31400,15 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>199</v>
+      <c r="C3" s="39" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -31446,7 +31449,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>74</v>
@@ -31495,7 +31498,7 @@
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -31504,10 +31507,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -32727,8 +32730,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
+      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -32773,105 +32776,79 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K6" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="18">
-        <f t="shared" ref="B6:B17" si="1">row()-4</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="31">
-        <v>11.0</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="35"/>
-    </row>
     <row r="7">
-      <c r="B7" s="18">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B7" s="19">
+        <v>1.0</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="31">
         <v>11.0</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="30" t="s">
-        <v>120</v>
-      </c>
+      <c r="I7" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="35"/>
     </row>
     <row r="8">
-      <c r="B8" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="B8" s="19">
+        <v>2.0</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>75</v>
@@ -32880,7 +32857,7 @@
         <v>11.0</v>
       </c>
       <c r="G8" s="35"/>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="36" t="s">
         <v>76</v>
       </c>
       <c r="I8" s="30" t="s">
@@ -32888,19 +32865,18 @@
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>75</v>
@@ -32909,7 +32885,7 @@
         <v>11.0</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="30" t="s">
@@ -32917,19 +32893,18 @@
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="B10" s="19">
+        <v>4.0</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>75</v>
@@ -32946,183 +32921,233 @@
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="18">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="B11" s="19">
+        <v>5.0</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="30">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="30"/>
+      <c r="I11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="30" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="18">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="B12" s="19">
+        <v>6.0</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F12" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0.0</v>
-      </c>
+        <v>11.0</v>
+      </c>
+      <c r="G12" s="35"/>
       <c r="H12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="J12" s="35"/>
       <c r="K12" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="18">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F14" s="30">
         <v>1.0</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G14" s="30">
         <v>0.0</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="18">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="21" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
-      <c r="K14" s="30"/>
+      <c r="K14" s="30" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="18">
-        <f t="shared" si="1"/>
-        <v>11</v>
+      <c r="B15" s="19">
+        <v>9.0</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>76</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="30" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="18">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="B16" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17">
-      <c r="B17" s="18">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="B17" s="19">
+        <v>11.0</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18">
-      <c r="H18" s="37"/>
+      <c r="B18" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19">
-      <c r="H19" s="37"/>
+      <c r="B19" s="19">
+        <v>13.0</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21">
+      <c r="H21" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -33163,15 +33188,15 @@
         <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>137</v>
+      <c r="B3" s="39" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -33212,7 +33237,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>74</v>
@@ -33241,10 +33266,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -33261,7 +33286,7 @@
       </c>
       <c r="J6" s="35"/>
       <c r="K6" s="24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -33270,10 +33295,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>110</v>
@@ -33293,13 +33318,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="35"/>
@@ -33316,13 +33341,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="35"/>
@@ -33352,7 +33377,7 @@
       <c r="G10" s="30">
         <v>0.0</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="36" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="35"/>
@@ -33369,7 +33394,7 @@
       <c r="C11" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -33519,7 +33544,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
@@ -33527,7 +33552,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -33573,7 +33598,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>74</v>
@@ -33605,7 +33630,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -33622,7 +33647,7 @@
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="24" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -33631,10 +33656,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -33651,7 +33676,7 @@
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
@@ -33660,10 +33685,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>81</v>
@@ -33705,7 +33730,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -33874,7 +33899,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
@@ -33920,7 +33945,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>74</v>
@@ -33949,10 +33974,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>81</v>
@@ -33974,10 +33999,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -33999,10 +34024,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>110</v>
@@ -34022,10 +34047,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>81</v>
@@ -34047,10 +34072,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>81</v>
@@ -34072,10 +34097,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>110</v>
@@ -34225,7 +34250,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -34233,7 +34258,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -34274,7 +34299,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>74</v>
@@ -34303,10 +34328,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -34321,7 +34346,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -34330,10 +34355,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>110</v>
@@ -34353,10 +34378,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>110</v>
@@ -34394,7 +34419,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">

--- a/document/データベース定義書-ちーむあるぺん.xlsx
+++ b/document/データベース定義書-ちーむあるぺん.xlsx
@@ -17,17 +17,17 @@
     <sheet state="visible" name="points" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_89C2EE62_0D82_4B14_A39F_F46A64746922_.wvu.FilterData">'改訂履歴'!$A$2:$D$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B3668E15_6AB6_43D7_861C_1C37A640B6D8_.wvu.FilterData">'改訂履歴'!$A$2:$D$56</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{89C2EE62-0D82-4B14-A39F-F46A64746922}" name="フィルタ 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{B3668E15-6AB6-43D7-861C-1C37A640B6D8}" name="フィルタ 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="208">
   <si>
     <t>改定履歴</t>
   </si>
@@ -212,6 +212,9 @@
     <t>物理名'is_tmp_reserved'を'is_registered'に変更</t>
   </si>
   <si>
+    <t>discount_idのnullを許可に変更</t>
+  </si>
+  <si>
     <t>役割</t>
   </si>
   <si>
@@ -371,6 +374,10 @@
     <t>name</t>
   </si>
   <si>
+    <t xml:space="preserve">暗号化利用モードは一旦はECBを使います。セキュリティの観点からみてもCBCを使った方が望ましいですが、CBCはランダムに生成される初期化ベクトルを保存しておく必要があり、データベースにカラムを追加する必要があります。CBCの実装に取り掛かるより、まずは機能を完成させることを優先したいので、一旦ECBで実装します。(3/1追記：二摩)
+</t>
+  </si>
+  <si>
     <t>決済情報を保持するテーブル</t>
   </si>
   <si>
@@ -380,7 +387,7 @@
     <t>2021/02/18 : 決済金額のデータ型をdecimalからintに変更</t>
   </si>
   <si>
-    <t>2021/02/18 : 予約IDをのカラムを追加</t>
+    <t>2021/02/19 : 予約IDをのカラムを追加</t>
   </si>
   <si>
     <t>決済ID</t>
@@ -467,7 +474,7 @@
     <t>放映日</t>
   </si>
   <si>
-    <t>date</t>
+    <t>screening_date</t>
   </si>
   <si>
     <t>放映開始時間</t>
@@ -483,6 +490,9 @@
   </si>
   <si>
     <t>end_time</t>
+  </si>
+  <si>
+    <t>3/8物理名dateをscreening_dateに変更　   理由：dateが予約語だった為</t>
   </si>
   <si>
     <t>reserved_seats</t>
@@ -651,7 +661,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -675,6 +685,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -682,6 +695,9 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -751,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -795,6 +811,12 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -820,11 +842,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
@@ -832,42 +857,51 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3122,10 +3156,18 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="15">
+        <v>44271.0</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3150,10 +3192,10 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3178,10 +3220,10 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3206,10 +3248,10 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3234,10 +3276,10 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3262,10 +3304,10 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3290,10 +3332,10 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3318,10 +3360,10 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3346,10 +3388,10 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3374,10 +3416,10 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3402,10 +3444,10 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3430,10 +3472,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3458,10 +3500,10 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3486,10 +3528,10 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -30619,8 +30661,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{89C2EE62-0D82-4B14-A39F-F46A64746922}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$2:$D$55"/>
+    <customSheetView guid="{B3668E15-6AB6-43D7-861C-1C37A640B6D8}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$2:$D$56"/>
     </customSheetView>
   </customSheetViews>
   <drawing r:id="rId1"/>
@@ -30651,352 +30693,352 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>181</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>182</v>
+      <c r="A3" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="28" t="s">
-        <v>183</v>
+      <c r="C4" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="28" t="s">
-        <v>184</v>
+      <c r="C5" s="31" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" ref="B7:B10" si="1">row()-4</f>
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="19">
+      <c r="E7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="21">
         <v>11.0</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="J7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="C8" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="21">
         <v>100.0</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="C9" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="21">
         <v>7.0</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20"/>
       <c r="J9" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="C10" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="21">
         <v>255.0</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11">
-      <c r="B11" s="19">
+      <c r="B11" s="21">
         <v>5.0</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="C11" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="21">
         <v>1.0</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="21">
         <v>0.0</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="H11" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" ref="B12:B19" si="2">row()-4</f>
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="19">
+      <c r="D12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="21">
         <v>1.0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="21">
         <v>0.0</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="40" t="s">
-        <v>90</v>
+      <c r="H12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="45" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
+      <c r="E13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
-      <c r="B17" s="18">
+      <c r="B17" s="20">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18">
-      <c r="B18" s="18">
+      <c r="B18" s="20">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19">
-      <c r="B19" s="18">
+      <c r="B19" s="20">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -31035,323 +31077,323 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>192</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>193</v>
+      <c r="A3" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="28" t="s">
-        <v>194</v>
+      <c r="C4" s="31" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <f t="shared" ref="B6:B17" si="1">row()-4</f>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="19">
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="21">
         <v>11.0</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="J6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="20"/>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="C7" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="21">
         <v>100.0</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="C8" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="21">
         <v>7.0</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="C9" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="21">
         <v>1.0</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="D10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="21">
         <v>1.0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="21">
         <v>0.0</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="40" t="s">
-        <v>90</v>
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="45" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="E11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
-      <c r="B17" s="18">
+      <c r="B17" s="20">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -31388,308 +31430,308 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>199</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>200</v>
+      <c r="A3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="19">
+      <c r="E5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="J5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="21">
         <v>11.0</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19" t="s">
-        <v>202</v>
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="C7" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="21">
         <v>11.0</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="D8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="21">
         <v>1.0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="21">
         <v>0.0</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="40" t="s">
-        <v>90</v>
+      <c r="H8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="45" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
+      <c r="E9" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31724,315 +31766,315 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
+      <c r="B2" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
+      <c r="A3" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="19">
+      <c r="E5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="J5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="19">
+      <c r="E6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="21">
         <v>255.0</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
         <v>255.0</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="K7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="19">
+      <c r="E8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="21">
         <v>1.0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="21">
         <v>0.0</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="16"/>
+      <c r="H8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="18"/>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="D9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="21">
         <v>1.0</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19" t="s">
-        <v>90</v>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
+      <c r="E10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32067,295 +32109,295 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>96</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
+      <c r="A3" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="19">
+      <c r="E5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="J5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="21">
         <v>11.0</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>100</v>
       </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="26" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="D7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="21">
         <v>1.0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="21">
         <v>0.0</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19" t="s">
-        <v>103</v>
+      <c r="H7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="E8" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32390,334 +32432,340 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>104</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
+      <c r="A3" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="19">
+      <c r="E5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="J5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="21">
         <v>11.0</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>100</v>
       </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="26" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="D7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="21">
         <v>255.0</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="25" t="s">
+      <c r="E8" s="21" t="s">
         <v>111</v>
       </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="27" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="D9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="21">
         <v>100.0</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="D10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="21">
         <v>1.0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="21">
         <v>0.0</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19" t="s">
-        <v>90</v>
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="E11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="28" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="21">
-      <c r="K21" s="26"/>
+      <c r="K21" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C18:E24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32747,398 +32795,396 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>114</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>115</v>
+      <c r="A3" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="29" t="s">
-        <v>116</v>
+      <c r="B4" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="29" t="s">
-        <v>117</v>
+      <c r="B5" s="32" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="7">
-      <c r="B7" s="19">
+      <c r="B7" s="21">
         <v>1.0</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="31">
+      <c r="E7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="34">
         <v>11.0</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="F8" s="33">
+        <v>11.0</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="30">
+      <c r="I8" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="33">
         <v>11.0</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="F10" s="33">
         <v>11.0</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="20" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="30">
+      <c r="F11" s="33">
         <v>11.0</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="21" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="F12" s="33">
         <v>11.0</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="21" t="s">
+      <c r="G12" s="38"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="F13" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="21">
         <v>11.0</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="19">
-        <v>7.0</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="30">
-        <v>7.0</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18">
-      <c r="B18" s="19">
+      <c r="B18" s="21">
         <v>12.0</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19">
-      <c r="B19" s="19">
+      <c r="B19" s="21">
         <v>13.0</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="H20" s="38"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21">
-      <c r="H21" s="38"/>
+      <c r="H21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -33176,342 +33222,348 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>139</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>140</v>
+      <c r="A3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B9" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="31">
+      <c r="E5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="34">
         <v>11.0</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="33" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="J5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="38"/>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="C6" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="34">
         <v>11.0</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="24" t="s">
-        <v>144</v>
+      <c r="G6" s="35"/>
+      <c r="H6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="26" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="C7" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="D8" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10">
-      <c r="B10" s="19">
+      <c r="B10" s="21">
         <v>6.0</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="30">
+      <c r="D10" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="33">
         <v>1.0</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="33">
         <v>0.0</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="40" t="s">
-        <v>90</v>
+      <c r="H10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="45" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <f t="shared" ref="B11:B17" si="2">row()-4</f>
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="30"/>
+      <c r="E11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
-      <c r="B17" s="18">
+      <c r="B17" s="20">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="46" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C19:E23"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -33540,319 +33592,319 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>152</v>
+      <c r="B1" s="18" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>153</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
+      <c r="A3" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="31">
+      <c r="E5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="34">
         <v>11.0</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="33" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="J5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="38"/>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="C6" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="34">
         <v>11.0</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="24" t="s">
-        <v>120</v>
+      <c r="G6" s="35"/>
+      <c r="H6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="26" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="31">
+      <c r="C7" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="34">
         <v>11.0</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="24" t="s">
-        <v>156</v>
+      <c r="G7" s="35"/>
+      <c r="H7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="30">
+      <c r="C8" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="33">
         <v>4.0</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="D9" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="33">
         <v>1.0</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="33">
         <v>0.0</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="30" t="s">
-        <v>138</v>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="30"/>
+      <c r="E10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="30"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33887,322 +33939,322 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>159</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
+      <c r="A3" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B15" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="19">
+      <c r="E5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="J5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C6" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="21">
         <v>32.0</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="C7" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="21">
         <v>11.0</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="C8" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="C9" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="21">
         <v>255.0</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="44"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="C10" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="21">
         <v>255.0</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="C11" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="19">
+      <c r="D12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="21">
         <v>1.0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="21">
         <v>0.0</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="40" t="s">
-        <v>90</v>
+      <c r="H12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="45" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="E13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34237,311 +34289,311 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="45"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>172</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>173</v>
+      <c r="A3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="1">row()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="19">
+      <c r="E5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="21">
         <v>11.0</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="J5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C6" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="21">
         <v>2.0</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19" t="s">
-        <v>176</v>
+      <c r="G6" s="20"/>
+      <c r="H6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="C7" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="C8" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="43" t="s">
+      <c r="C9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="D9" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="21">
         <v>1.0</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="21">
         <v>0.0</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19" t="s">
-        <v>180</v>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="42" t="s">
+      <c r="C10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
+      <c r="E10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
